--- a/개발 5팀 6차 미니 프로젝트/4) 개발 5팀_프로젝트_GanttChart.xlsx
+++ b/개발 5팀 6차 미니 프로젝트/4) 개발 5팀_프로젝트_GanttChart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kosmo_14\Desktop\5jo\개발 5팀 6차 미니 프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1DF53A-9AE6-432B-BE06-799EAB53A23D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6AB747-E960-4E60-8AE2-1655ACE2260C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -179,7 +179,7 @@
     <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="181" formatCode="d&quot;일&quot;"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,8 +290,17 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -364,8 +373,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -625,13 +639,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -749,6 +781,93 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="11" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -761,95 +880,12 @@
     <xf numFmtId="49" fontId="10" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="21" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="셀 확인" xfId="1" builtinId="23"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
@@ -1232,10 +1268,10 @@
   <dimension ref="A1:AI1048552"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="6" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="6" topLeftCell="H25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G47" sqref="G47"/>
+      <selection pane="bottomRight" activeCell="H47" sqref="H47:P47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1251,23 +1287,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="53" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
     </row>
     <row r="2" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="49"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="45"/>
       <c r="E2" s="10" t="s">
         <v>22</v>
       </c>
@@ -1279,66 +1315,66 @@
       </c>
     </row>
     <row r="3" spans="1:35" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="64" t="s">
+      <c r="D3" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="65" t="s">
+      <c r="E3" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="66" t="s">
+      <c r="F3" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="68" t="s">
+      <c r="G3" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="39"/>
+      <c r="AC3" s="39"/>
+      <c r="AD3" s="39"/>
+      <c r="AE3" s="39"/>
+      <c r="AF3" s="39"/>
+      <c r="AG3" s="39"/>
+      <c r="AH3" s="39"/>
+      <c r="AI3" s="39"/>
     </row>
     <row r="4" spans="1:35" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="63"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="68"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="64"/>
       <c r="H4" s="8">
         <v>44046</v>
       </c>
@@ -1425,49 +1461,49 @@
       </c>
     </row>
     <row r="5" spans="1:35" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="63"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="39" t="s">
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39" t="s">
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="39"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="39" t="s">
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="68"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="W5" s="39"/>
-      <c r="X5" s="39"/>
-      <c r="Y5" s="39"/>
-      <c r="Z5" s="39"/>
-      <c r="AA5" s="39"/>
-      <c r="AB5" s="39"/>
-      <c r="AC5" s="39" t="s">
+      <c r="W5" s="68"/>
+      <c r="X5" s="68"/>
+      <c r="Y5" s="68"/>
+      <c r="Z5" s="68"/>
+      <c r="AA5" s="68"/>
+      <c r="AB5" s="68"/>
+      <c r="AC5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="AD5" s="39"/>
-      <c r="AE5" s="39"/>
-      <c r="AF5" s="39"/>
-      <c r="AG5" s="39"/>
-      <c r="AH5" s="39"/>
-      <c r="AI5" s="39"/>
+      <c r="AD5" s="68"/>
+      <c r="AE5" s="68"/>
+      <c r="AF5" s="68"/>
+      <c r="AG5" s="68"/>
+      <c r="AH5" s="68"/>
+      <c r="AI5" s="68"/>
     </row>
     <row r="6" spans="1:35" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
@@ -1562,8 +1598,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:35" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="69" t="s">
+    <row r="7" spans="1:35" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="65" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="24" t="s">
@@ -1577,45 +1613,45 @@
         <v>44327</v>
       </c>
       <c r="F7" s="27">
-        <f t="shared" ref="F7:F10" si="0">E7-D7+1</f>
+        <f t="shared" ref="F7:F8" si="0">E7-D7+1</f>
         <v>9</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="29" t="str">
+      <c r="H7" s="72" t="str">
         <f>IF(AND(H$4&gt;=$D7,H$4&lt;=$E7)," ","")</f>
         <v/>
       </c>
-      <c r="I7" s="29" t="str">
+      <c r="I7" s="72" t="str">
         <f>IF(AND(I$4&gt;=$D7,I$4&lt;=$E7)," ","")</f>
         <v/>
       </c>
-      <c r="J7" s="29" t="str">
+      <c r="J7" s="72" t="str">
         <f t="shared" ref="I7:X21" si="1">IF(AND(J$4&gt;=$D7,J$4&lt;=$E7)," ","")</f>
         <v/>
       </c>
-      <c r="K7" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L7" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M7" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N7" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O7" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P7" s="29" t="str">
+      <c r="K7" s="72" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L7" s="72" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M7" s="72" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N7" s="72" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O7" s="72" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P7" s="72" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1696,8 +1732,8 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="70"/>
+    <row r="8" spans="1:35" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="66"/>
       <c r="B8" s="11" t="s">
         <v>38</v>
       </c>
@@ -1715,39 +1751,39 @@
       <c r="G8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="23" t="str">
+      <c r="H8" s="72" t="str">
         <f t="shared" ref="H8:W22" si="3">IF(AND(H$4&gt;=$D8,H$4&lt;=$E8)," ","")</f>
         <v/>
       </c>
-      <c r="I8" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J8" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K8" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L8" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M8" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N8" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O8" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P8" s="23" t="str">
+      <c r="I8" s="72" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J8" s="72" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K8" s="72" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L8" s="72" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M8" s="72" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N8" s="72" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O8" s="72" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P8" s="72" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1828,8 +1864,8 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="70"/>
+    <row r="9" spans="1:35" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="66"/>
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
       <c r="D9" s="26"/>
@@ -1950,7 +1986,7 @@
       </c>
     </row>
     <row r="10" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="70"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
       <c r="D10" s="26"/>
@@ -2071,7 +2107,7 @@
       </c>
     </row>
     <row r="11" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="70"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
       <c r="D11" s="13"/>
@@ -2192,7 +2228,7 @@
       </c>
     </row>
     <row r="12" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="70"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="11"/>
       <c r="C12" s="12"/>
       <c r="D12" s="13"/>
@@ -2313,7 +2349,7 @@
       </c>
     </row>
     <row r="13" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="70"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
       <c r="D13" s="13"/>
@@ -2434,7 +2470,7 @@
       </c>
     </row>
     <row r="14" spans="1:35" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="71"/>
+      <c r="A14" s="67"/>
       <c r="B14" s="32"/>
       <c r="C14" s="33"/>
       <c r="D14" s="34"/>
@@ -2554,8 +2590,8 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="57" t="s">
+    <row r="15" spans="1:35" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="53" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="24" t="s">
@@ -2569,45 +2605,45 @@
         <v>44327</v>
       </c>
       <c r="F15" s="27">
-        <f t="shared" ref="F15:F18" si="4">E15-D15+1</f>
+        <f t="shared" ref="F15" si="4">E15-D15+1</f>
         <v>9</v>
       </c>
       <c r="G15" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="29" t="str">
+      <c r="H15" s="72" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I15" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J15" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K15" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L15" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M15" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N15" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O15" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P15" s="29" t="str">
+      <c r="I15" s="72" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J15" s="72" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K15" s="72" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L15" s="72" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M15" s="72" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N15" s="72" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O15" s="72" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P15" s="72" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2688,8 +2724,8 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="58"/>
+    <row r="16" spans="1:35" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="54"/>
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
       <c r="D16" s="26"/>
@@ -2810,7 +2846,7 @@
       </c>
     </row>
     <row r="17" spans="1:35" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="58"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
       <c r="D17" s="26"/>
@@ -2931,7 +2967,7 @@
       </c>
     </row>
     <row r="18" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="58"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
       <c r="D18" s="26"/>
@@ -3052,7 +3088,7 @@
       </c>
     </row>
     <row r="19" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="58"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
       <c r="D19" s="13"/>
@@ -3173,7 +3209,7 @@
       </c>
     </row>
     <row r="20" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="58"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="11"/>
       <c r="C20" s="12"/>
       <c r="D20" s="13"/>
@@ -3294,7 +3330,7 @@
       </c>
     </row>
     <row r="21" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="58"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
       <c r="D21" s="13"/>
@@ -3415,7 +3451,7 @@
       </c>
     </row>
     <row r="22" spans="1:35" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="59"/>
+      <c r="A22" s="55"/>
       <c r="B22" s="32"/>
       <c r="C22" s="33"/>
       <c r="D22" s="34"/>
@@ -3535,8 +3571,8 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:35" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="60" t="s">
+    <row r="23" spans="1:35" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="56" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="24" t="s">
@@ -3550,45 +3586,45 @@
         <v>44327</v>
       </c>
       <c r="F23" s="27">
-        <f t="shared" ref="F23:F26" si="6">E23-D23+1</f>
+        <f t="shared" ref="F23" si="6">E23-D23+1</f>
         <v>9</v>
       </c>
       <c r="G23" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="29" t="str">
+      <c r="H23" s="72" t="str">
         <f t="shared" ref="H23:W40" si="7">IF(AND(H$4&gt;=$D23,H$4&lt;=$E23)," ","")</f>
         <v/>
       </c>
-      <c r="I23" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="J23" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K23" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L23" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M23" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="N23" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="O23" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="P23" s="29" t="str">
+      <c r="I23" s="72" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J23" s="72" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="K23" s="72" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L23" s="72" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M23" s="72" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N23" s="72" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O23" s="72" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="P23" s="72" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -3669,8 +3705,8 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:35" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="61"/>
+    <row r="24" spans="1:35" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="57"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
       <c r="D24" s="26"/>
@@ -3791,7 +3827,7 @@
       </c>
     </row>
     <row r="25" spans="1:35" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="61"/>
+      <c r="A25" s="57"/>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
       <c r="D25" s="26"/>
@@ -3912,7 +3948,7 @@
       </c>
     </row>
     <row r="26" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="61"/>
+      <c r="A26" s="57"/>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
       <c r="D26" s="26"/>
@@ -4033,7 +4069,7 @@
       </c>
     </row>
     <row r="27" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="61"/>
+      <c r="A27" s="57"/>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
       <c r="D27" s="13"/>
@@ -4154,7 +4190,7 @@
       </c>
     </row>
     <row r="28" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="61"/>
+      <c r="A28" s="57"/>
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
       <c r="D28" s="13"/>
@@ -4191,7 +4227,7 @@
       <c r="AI28" s="31"/>
     </row>
     <row r="29" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="61"/>
+      <c r="A29" s="57"/>
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
       <c r="D29" s="13"/>
@@ -4312,7 +4348,7 @@
       </c>
     </row>
     <row r="30" spans="1:35" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="62"/>
+      <c r="A30" s="58"/>
       <c r="B30" s="32"/>
       <c r="C30" s="33"/>
       <c r="D30" s="34"/>
@@ -4432,8 +4468,8 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:35" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="54" t="s">
+    <row r="31" spans="1:35" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="50" t="s">
         <v>28</v>
       </c>
       <c r="B31" s="24" t="s">
@@ -4447,45 +4483,45 @@
         <v>44327</v>
       </c>
       <c r="F31" s="27">
-        <f t="shared" ref="F31:F34" si="8">E31-D31+1</f>
+        <f t="shared" ref="F31" si="8">E31-D31+1</f>
         <v>9</v>
       </c>
       <c r="G31" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="H31" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I31" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="J31" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K31" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L31" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M31" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="N31" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="O31" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="P31" s="29" t="str">
+      <c r="H31" s="72" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I31" s="72" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J31" s="72" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="K31" s="72" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L31" s="72" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M31" s="72" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N31" s="72" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O31" s="72" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="P31" s="72" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -4566,8 +4602,8 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:35" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="55"/>
+    <row r="32" spans="1:35" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="51"/>
       <c r="B32" s="11"/>
       <c r="C32" s="12"/>
       <c r="D32" s="26"/>
@@ -4688,7 +4724,7 @@
       </c>
     </row>
     <row r="33" spans="1:35" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="55"/>
+      <c r="A33" s="51"/>
       <c r="B33" s="11"/>
       <c r="C33" s="12"/>
       <c r="D33" s="26"/>
@@ -4809,7 +4845,7 @@
       </c>
     </row>
     <row r="34" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="55"/>
+      <c r="A34" s="51"/>
       <c r="B34" s="11"/>
       <c r="C34" s="12"/>
       <c r="D34" s="26"/>
@@ -4930,7 +4966,7 @@
       </c>
     </row>
     <row r="35" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="55"/>
+      <c r="A35" s="51"/>
       <c r="B35" s="11"/>
       <c r="C35" s="12"/>
       <c r="D35" s="13"/>
@@ -5051,7 +5087,7 @@
       </c>
     </row>
     <row r="36" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="55"/>
+      <c r="A36" s="51"/>
       <c r="B36" s="11"/>
       <c r="C36" s="12"/>
       <c r="D36" s="13"/>
@@ -5088,7 +5124,7 @@
       <c r="AI36" s="31"/>
     </row>
     <row r="37" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="55"/>
+      <c r="A37" s="51"/>
       <c r="B37" s="11"/>
       <c r="C37" s="12"/>
       <c r="D37" s="13"/>
@@ -5209,7 +5245,7 @@
       </c>
     </row>
     <row r="38" spans="1:35" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="56"/>
+      <c r="A38" s="52"/>
       <c r="B38" s="32"/>
       <c r="C38" s="33"/>
       <c r="D38" s="34"/>
@@ -5329,8 +5365,8 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:35" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="40" t="s">
+    <row r="39" spans="1:35" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="69" t="s">
         <v>29</v>
       </c>
       <c r="B39" s="24" t="s">
@@ -5344,45 +5380,45 @@
         <v>44327</v>
       </c>
       <c r="F39" s="27">
-        <f t="shared" ref="F39:F42" si="11">E39-D39+1</f>
+        <f t="shared" ref="F39" si="11">E39-D39+1</f>
         <v>9</v>
       </c>
       <c r="G39" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="H39" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I39" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="J39" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K39" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L39" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M39" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="N39" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="O39" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="P39" s="29" t="str">
+      <c r="H39" s="72" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I39" s="72" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J39" s="72" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="K39" s="72" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L39" s="72" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M39" s="72" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N39" s="72" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O39" s="72" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="P39" s="72" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -5463,8 +5499,8 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:35" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="41"/>
+    <row r="40" spans="1:35" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="70"/>
       <c r="B40" s="11"/>
       <c r="C40" s="12"/>
       <c r="D40" s="26"/>
@@ -5585,7 +5621,7 @@
       </c>
     </row>
     <row r="41" spans="1:35" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="41"/>
+      <c r="A41" s="70"/>
       <c r="B41" s="11"/>
       <c r="C41" s="12"/>
       <c r="D41" s="26"/>
@@ -5706,7 +5742,7 @@
       </c>
     </row>
     <row r="42" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="41"/>
+      <c r="A42" s="70"/>
       <c r="B42" s="11"/>
       <c r="C42" s="12"/>
       <c r="D42" s="26"/>
@@ -5827,7 +5863,7 @@
       </c>
     </row>
     <row r="43" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="41"/>
+      <c r="A43" s="70"/>
       <c r="B43" s="11"/>
       <c r="C43" s="12"/>
       <c r="D43" s="13"/>
@@ -5948,7 +5984,7 @@
       </c>
     </row>
     <row r="44" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="41"/>
+      <c r="A44" s="70"/>
       <c r="B44" s="11"/>
       <c r="C44" s="12"/>
       <c r="D44" s="13"/>
@@ -5985,7 +6021,7 @@
       <c r="AI44" s="31"/>
     </row>
     <row r="45" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="41"/>
+      <c r="A45" s="70"/>
       <c r="B45" s="11"/>
       <c r="C45" s="12"/>
       <c r="D45" s="13"/>
@@ -6106,7 +6142,7 @@
       </c>
     </row>
     <row r="46" spans="1:35" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="42"/>
+      <c r="A46" s="71"/>
       <c r="B46" s="32"/>
       <c r="C46" s="33"/>
       <c r="D46" s="34"/>
@@ -6226,8 +6262,8 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:35" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="50" t="s">
+    <row r="47" spans="1:35" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="46" t="s">
         <v>30</v>
       </c>
       <c r="B47" s="24" t="s">
@@ -6241,45 +6277,45 @@
         <v>44327</v>
       </c>
       <c r="F47" s="27">
-        <f t="shared" ref="F47:F50" si="13">E47-D47+1</f>
+        <f t="shared" ref="F47" si="13">E47-D47+1</f>
         <v>9</v>
       </c>
       <c r="G47" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="H47" s="29" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="I47" s="29" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="J47" s="29" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="K47" s="29" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="L47" s="29" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="M47" s="29" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="N47" s="29" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="O47" s="29" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="P47" s="29" t="str">
+      <c r="H47" s="72" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I47" s="72" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="J47" s="72" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="K47" s="72" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="L47" s="72" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="M47" s="72" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="N47" s="72" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="O47" s="72" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="P47" s="72" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -6360,8 +6396,8 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:35" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="51"/>
+    <row r="48" spans="1:35" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="47"/>
       <c r="B48" s="11"/>
       <c r="C48" s="12"/>
       <c r="D48" s="26"/>
@@ -6482,7 +6518,7 @@
       </c>
     </row>
     <row r="49" spans="1:35" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="51"/>
+      <c r="A49" s="47"/>
       <c r="B49" s="11"/>
       <c r="C49" s="12"/>
       <c r="D49" s="26"/>
@@ -6603,7 +6639,7 @@
       </c>
     </row>
     <row r="50" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="51"/>
+      <c r="A50" s="47"/>
       <c r="B50" s="11"/>
       <c r="C50" s="12"/>
       <c r="D50" s="26"/>
@@ -6724,7 +6760,7 @@
       </c>
     </row>
     <row r="51" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="51"/>
+      <c r="A51" s="47"/>
       <c r="B51" s="11"/>
       <c r="C51" s="12"/>
       <c r="D51" s="13"/>
@@ -6845,7 +6881,7 @@
       </c>
     </row>
     <row r="52" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="51"/>
+      <c r="A52" s="47"/>
       <c r="B52" s="11"/>
       <c r="C52" s="12"/>
       <c r="D52" s="13"/>
@@ -6882,7 +6918,7 @@
       <c r="AI52" s="31"/>
     </row>
     <row r="53" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="51"/>
+      <c r="A53" s="47"/>
       <c r="B53" s="11"/>
       <c r="C53" s="12"/>
       <c r="D53" s="13"/>
@@ -7003,7 +7039,7 @@
       </c>
     </row>
     <row r="54" spans="1:35" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="52"/>
+      <c r="A54" s="48"/>
       <c r="B54" s="32"/>
       <c r="C54" s="33"/>
       <c r="D54" s="34"/>
@@ -7176,6 +7212,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="V5:AB5"/>
+    <mergeCell ref="AC5:AI5"/>
+    <mergeCell ref="A39:A46"/>
+    <mergeCell ref="H5:N5"/>
     <mergeCell ref="H3:AI3"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="A47:A54"/>
@@ -7192,10 +7232,6 @@
     <mergeCell ref="G3:G5"/>
     <mergeCell ref="A7:A14"/>
     <mergeCell ref="O5:U5"/>
-    <mergeCell ref="V5:AB5"/>
-    <mergeCell ref="AC5:AI5"/>
-    <mergeCell ref="A39:A46"/>
-    <mergeCell ref="H5:N5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H7:AI14">

--- a/개발 5팀 6차 미니 프로젝트/4) 개발 5팀_프로젝트_GanttChart.xlsx
+++ b/개발 5팀 6차 미니 프로젝트/4) 개발 5팀_프로젝트_GanttChart.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kosmo_14\Desktop\5jo\개발 5팀 6차 미니 프로젝트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\개발5팀_ECLIPSE-GIT\5team\개발 5팀 6차 미니 프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6AB747-E960-4E60-8AE2-1655ACE2260C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D1C82B-6891-43BA-A8CF-FE778911D95A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="간트차트_Gantt Chart" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
   <si>
     <t>담당자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,6 +165,25 @@
   </si>
   <si>
     <t>회원 로그인 정보 암호화 처리</t>
+  </si>
+  <si>
+    <t>기획_분석_설계보고서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행완료</t>
+  </si>
+  <si>
+    <t>깃_깃허브_매뉴얼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>형상관리_보고서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -663,7 +682,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -781,6 +800,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="21" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -868,27 +902,22 @@
     <xf numFmtId="49" fontId="10" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="21" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="셀 확인" xfId="1" builtinId="23"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1268,10 +1297,10 @@
   <dimension ref="A1:AI1048552"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="6" topLeftCell="H25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="6" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H47" sqref="H47:P47"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1287,23 +1316,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="49" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
     </row>
     <row r="2" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="45"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50"/>
       <c r="E2" s="10" t="s">
         <v>22</v>
       </c>
@@ -1315,66 +1344,66 @@
       </c>
     </row>
     <row r="3" spans="1:35" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="61" t="s">
+      <c r="E3" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="62" t="s">
+      <c r="F3" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="64" t="s">
+      <c r="G3" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="39"/>
-      <c r="AB3" s="39"/>
-      <c r="AC3" s="39"/>
-      <c r="AD3" s="39"/>
-      <c r="AE3" s="39"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="39"/>
-      <c r="AH3" s="39"/>
-      <c r="AI3" s="39"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="44"/>
+      <c r="AE3" s="44"/>
+      <c r="AF3" s="44"/>
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="44"/>
     </row>
     <row r="4" spans="1:35" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="59"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="64"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="69"/>
       <c r="H4" s="8">
         <v>44046</v>
       </c>
@@ -1461,49 +1490,49 @@
       </c>
     </row>
     <row r="5" spans="1:35" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="68" t="s">
+      <c r="A5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68" t="s">
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68" t="s">
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="W5" s="68"/>
-      <c r="X5" s="68"/>
-      <c r="Y5" s="68"/>
-      <c r="Z5" s="68"/>
-      <c r="AA5" s="68"/>
-      <c r="AB5" s="68"/>
-      <c r="AC5" s="68" t="s">
+      <c r="W5" s="40"/>
+      <c r="X5" s="40"/>
+      <c r="Y5" s="40"/>
+      <c r="Z5" s="40"/>
+      <c r="AA5" s="40"/>
+      <c r="AB5" s="40"/>
+      <c r="AC5" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="AD5" s="68"/>
-      <c r="AE5" s="68"/>
-      <c r="AF5" s="68"/>
-      <c r="AG5" s="68"/>
-      <c r="AH5" s="68"/>
-      <c r="AI5" s="68"/>
+      <c r="AD5" s="40"/>
+      <c r="AE5" s="40"/>
+      <c r="AF5" s="40"/>
+      <c r="AG5" s="40"/>
+      <c r="AH5" s="40"/>
+      <c r="AI5" s="40"/>
     </row>
     <row r="6" spans="1:35" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
@@ -1599,7 +1628,7 @@
       </c>
     </row>
     <row r="7" spans="1:35" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="70" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="24" t="s">
@@ -1619,39 +1648,39 @@
       <c r="G7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="72" t="str">
+      <c r="H7" s="39" t="str">
         <f>IF(AND(H$4&gt;=$D7,H$4&lt;=$E7)," ","")</f>
         <v/>
       </c>
-      <c r="I7" s="72" t="str">
+      <c r="I7" s="39" t="str">
         <f>IF(AND(I$4&gt;=$D7,I$4&lt;=$E7)," ","")</f>
         <v/>
       </c>
-      <c r="J7" s="72" t="str">
+      <c r="J7" s="39" t="str">
         <f t="shared" ref="I7:X21" si="1">IF(AND(J$4&gt;=$D7,J$4&lt;=$E7)," ","")</f>
         <v/>
       </c>
-      <c r="K7" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L7" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M7" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N7" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O7" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P7" s="72" t="str">
+      <c r="K7" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L7" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M7" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N7" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O7" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P7" s="39" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1733,7 +1762,7 @@
       </c>
     </row>
     <row r="8" spans="1:35" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="66"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="11" t="s">
         <v>38</v>
       </c>
@@ -1751,39 +1780,39 @@
       <c r="G8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="72" t="str">
+      <c r="H8" s="39" t="str">
         <f t="shared" ref="H8:W22" si="3">IF(AND(H$4&gt;=$D8,H$4&lt;=$E8)," ","")</f>
         <v/>
       </c>
-      <c r="I8" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J8" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K8" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L8" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M8" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N8" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O8" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P8" s="72" t="str">
+      <c r="I8" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J8" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K8" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L8" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M8" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N8" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O8" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P8" s="39" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1865,47 +1894,57 @@
       </c>
     </row>
     <row r="9" spans="1:35" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="66"/>
-      <c r="B9" s="11"/>
+      <c r="A9" s="71"/>
+      <c r="B9" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="C9" s="12"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
+      <c r="D9" s="26">
+        <v>44320</v>
+      </c>
+      <c r="E9" s="26">
+        <v>44327</v>
+      </c>
+      <c r="F9" s="14">
+        <v>8</v>
+      </c>
+      <c r="G9" s="73" t="s">
+        <v>40</v>
+      </c>
       <c r="H9" s="23" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I9" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J9" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K9" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L9" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M9" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N9" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O9" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P9" s="23" t="str">
-        <f t="shared" si="1"/>
+      <c r="I9" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J9" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K9" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L9" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M9" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N9" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O9" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P9" s="39" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Q9" s="23" t="str">
@@ -1985,48 +2024,58 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="66"/>
-      <c r="B10" s="11"/>
+    <row r="10" spans="1:35" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="71"/>
+      <c r="B10" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="C10" s="12"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
+      <c r="D10" s="26">
+        <v>44326</v>
+      </c>
+      <c r="E10" s="26">
+        <v>44327</v>
+      </c>
+      <c r="F10" s="14">
+        <v>2</v>
+      </c>
+      <c r="G10" s="73" t="s">
+        <v>40</v>
+      </c>
       <c r="H10" s="23" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I10" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J10" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K10" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L10" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M10" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N10" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O10" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P10" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O10" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P10" s="39" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Q10" s="23" t="str">
@@ -2106,48 +2155,58 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="66"/>
-      <c r="B11" s="11"/>
+    <row r="11" spans="1:35" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="71"/>
+      <c r="B11" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
+      <c r="D11" s="26">
+        <v>44326</v>
+      </c>
+      <c r="E11" s="26">
+        <v>44327</v>
+      </c>
+      <c r="F11" s="14">
+        <v>2</v>
+      </c>
+      <c r="G11" s="73" t="s">
+        <v>40</v>
+      </c>
       <c r="H11" s="23" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I11" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J11" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K11" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L11" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M11" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N11" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O11" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P11" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O11" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P11" s="39" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Q11" s="23" t="str">
@@ -2227,48 +2286,58 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="66"/>
-      <c r="B12" s="11"/>
+    <row r="12" spans="1:35" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="71"/>
+      <c r="B12" s="11" t="s">
+        <v>43</v>
+      </c>
       <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
+      <c r="D12" s="26">
+        <v>44326</v>
+      </c>
+      <c r="E12" s="26">
+        <v>44327</v>
+      </c>
+      <c r="F12" s="14">
+        <v>3</v>
+      </c>
+      <c r="G12" s="73" t="s">
+        <v>40</v>
+      </c>
       <c r="H12" s="23" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I12" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J12" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K12" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L12" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M12" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N12" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O12" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P12" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O12" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P12" s="39" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Q12" s="23" t="str">
@@ -2348,8 +2417,8 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="66"/>
+    <row r="13" spans="1:35" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="71"/>
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
       <c r="D13" s="13"/>
@@ -2470,7 +2539,7 @@
       </c>
     </row>
     <row r="14" spans="1:35" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="67"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="32"/>
       <c r="C14" s="33"/>
       <c r="D14" s="34"/>
@@ -2591,7 +2660,7 @@
       </c>
     </row>
     <row r="15" spans="1:35" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="58" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="24" t="s">
@@ -2611,39 +2680,39 @@
       <c r="G15" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="72" t="str">
+      <c r="H15" s="39" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I15" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J15" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K15" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L15" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M15" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N15" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O15" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P15" s="72" t="str">
+      <c r="I15" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J15" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K15" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L15" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M15" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N15" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O15" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P15" s="39" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2725,7 +2794,7 @@
       </c>
     </row>
     <row r="16" spans="1:35" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="54"/>
+      <c r="A16" s="59"/>
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
       <c r="D16" s="26"/>
@@ -2846,7 +2915,7 @@
       </c>
     </row>
     <row r="17" spans="1:35" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="54"/>
+      <c r="A17" s="59"/>
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
       <c r="D17" s="26"/>
@@ -2967,7 +3036,7 @@
       </c>
     </row>
     <row r="18" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="54"/>
+      <c r="A18" s="59"/>
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
       <c r="D18" s="26"/>
@@ -3088,7 +3157,7 @@
       </c>
     </row>
     <row r="19" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="54"/>
+      <c r="A19" s="59"/>
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
       <c r="D19" s="13"/>
@@ -3209,7 +3278,7 @@
       </c>
     </row>
     <row r="20" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="54"/>
+      <c r="A20" s="59"/>
       <c r="B20" s="11"/>
       <c r="C20" s="12"/>
       <c r="D20" s="13"/>
@@ -3330,7 +3399,7 @@
       </c>
     </row>
     <row r="21" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="54"/>
+      <c r="A21" s="59"/>
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
       <c r="D21" s="13"/>
@@ -3451,7 +3520,7 @@
       </c>
     </row>
     <row r="22" spans="1:35" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="55"/>
+      <c r="A22" s="60"/>
       <c r="B22" s="32"/>
       <c r="C22" s="33"/>
       <c r="D22" s="34"/>
@@ -3572,7 +3641,7 @@
       </c>
     </row>
     <row r="23" spans="1:35" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="61" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="24" t="s">
@@ -3592,39 +3661,39 @@
       <c r="G23" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="72" t="str">
+      <c r="H23" s="39" t="str">
         <f t="shared" ref="H23:W40" si="7">IF(AND(H$4&gt;=$D23,H$4&lt;=$E23)," ","")</f>
         <v/>
       </c>
-      <c r="I23" s="72" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="J23" s="72" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K23" s="72" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L23" s="72" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M23" s="72" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="N23" s="72" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="O23" s="72" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="P23" s="72" t="str">
+      <c r="I23" s="39" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J23" s="39" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="K23" s="39" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L23" s="39" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M23" s="39" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N23" s="39" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O23" s="39" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="P23" s="39" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -3706,7 +3775,7 @@
       </c>
     </row>
     <row r="24" spans="1:35" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="57"/>
+      <c r="A24" s="62"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
       <c r="D24" s="26"/>
@@ -3827,7 +3896,7 @@
       </c>
     </row>
     <row r="25" spans="1:35" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="57"/>
+      <c r="A25" s="62"/>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
       <c r="D25" s="26"/>
@@ -3948,7 +4017,7 @@
       </c>
     </row>
     <row r="26" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="57"/>
+      <c r="A26" s="62"/>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
       <c r="D26" s="26"/>
@@ -4069,7 +4138,7 @@
       </c>
     </row>
     <row r="27" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="57"/>
+      <c r="A27" s="62"/>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
       <c r="D27" s="13"/>
@@ -4190,7 +4259,7 @@
       </c>
     </row>
     <row r="28" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="57"/>
+      <c r="A28" s="62"/>
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
       <c r="D28" s="13"/>
@@ -4227,7 +4296,7 @@
       <c r="AI28" s="31"/>
     </row>
     <row r="29" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="57"/>
+      <c r="A29" s="62"/>
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
       <c r="D29" s="13"/>
@@ -4348,7 +4417,7 @@
       </c>
     </row>
     <row r="30" spans="1:35" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="58"/>
+      <c r="A30" s="63"/>
       <c r="B30" s="32"/>
       <c r="C30" s="33"/>
       <c r="D30" s="34"/>
@@ -4469,7 +4538,7 @@
       </c>
     </row>
     <row r="31" spans="1:35" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="50" t="s">
+      <c r="A31" s="55" t="s">
         <v>28</v>
       </c>
       <c r="B31" s="24" t="s">
@@ -4489,39 +4558,39 @@
       <c r="G31" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="H31" s="72" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I31" s="72" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="J31" s="72" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K31" s="72" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L31" s="72" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M31" s="72" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="N31" s="72" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="O31" s="72" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="P31" s="72" t="str">
+      <c r="H31" s="39" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I31" s="39" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J31" s="39" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="K31" s="39" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L31" s="39" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M31" s="39" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N31" s="39" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O31" s="39" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="P31" s="39" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -4603,7 +4672,7 @@
       </c>
     </row>
     <row r="32" spans="1:35" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="51"/>
+      <c r="A32" s="56"/>
       <c r="B32" s="11"/>
       <c r="C32" s="12"/>
       <c r="D32" s="26"/>
@@ -4724,7 +4793,7 @@
       </c>
     </row>
     <row r="33" spans="1:35" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="51"/>
+      <c r="A33" s="56"/>
       <c r="B33" s="11"/>
       <c r="C33" s="12"/>
       <c r="D33" s="26"/>
@@ -4845,7 +4914,7 @@
       </c>
     </row>
     <row r="34" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="51"/>
+      <c r="A34" s="56"/>
       <c r="B34" s="11"/>
       <c r="C34" s="12"/>
       <c r="D34" s="26"/>
@@ -4966,7 +5035,7 @@
       </c>
     </row>
     <row r="35" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="51"/>
+      <c r="A35" s="56"/>
       <c r="B35" s="11"/>
       <c r="C35" s="12"/>
       <c r="D35" s="13"/>
@@ -5087,7 +5156,7 @@
       </c>
     </row>
     <row r="36" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="51"/>
+      <c r="A36" s="56"/>
       <c r="B36" s="11"/>
       <c r="C36" s="12"/>
       <c r="D36" s="13"/>
@@ -5124,7 +5193,7 @@
       <c r="AI36" s="31"/>
     </row>
     <row r="37" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="51"/>
+      <c r="A37" s="56"/>
       <c r="B37" s="11"/>
       <c r="C37" s="12"/>
       <c r="D37" s="13"/>
@@ -5245,7 +5314,7 @@
       </c>
     </row>
     <row r="38" spans="1:35" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="52"/>
+      <c r="A38" s="57"/>
       <c r="B38" s="32"/>
       <c r="C38" s="33"/>
       <c r="D38" s="34"/>
@@ -5366,7 +5435,7 @@
       </c>
     </row>
     <row r="39" spans="1:35" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="69" t="s">
+      <c r="A39" s="41" t="s">
         <v>29</v>
       </c>
       <c r="B39" s="24" t="s">
@@ -5386,39 +5455,39 @@
       <c r="G39" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="H39" s="72" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I39" s="72" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="J39" s="72" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K39" s="72" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L39" s="72" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M39" s="72" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="N39" s="72" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="O39" s="72" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="P39" s="72" t="str">
+      <c r="H39" s="39" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I39" s="39" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J39" s="39" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="K39" s="39" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L39" s="39" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M39" s="39" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N39" s="39" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O39" s="39" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="P39" s="39" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -5500,7 +5569,7 @@
       </c>
     </row>
     <row r="40" spans="1:35" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="70"/>
+      <c r="A40" s="42"/>
       <c r="B40" s="11"/>
       <c r="C40" s="12"/>
       <c r="D40" s="26"/>
@@ -5621,7 +5690,7 @@
       </c>
     </row>
     <row r="41" spans="1:35" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="70"/>
+      <c r="A41" s="42"/>
       <c r="B41" s="11"/>
       <c r="C41" s="12"/>
       <c r="D41" s="26"/>
@@ -5742,7 +5811,7 @@
       </c>
     </row>
     <row r="42" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="70"/>
+      <c r="A42" s="42"/>
       <c r="B42" s="11"/>
       <c r="C42" s="12"/>
       <c r="D42" s="26"/>
@@ -5863,7 +5932,7 @@
       </c>
     </row>
     <row r="43" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="70"/>
+      <c r="A43" s="42"/>
       <c r="B43" s="11"/>
       <c r="C43" s="12"/>
       <c r="D43" s="13"/>
@@ -5984,7 +6053,7 @@
       </c>
     </row>
     <row r="44" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="70"/>
+      <c r="A44" s="42"/>
       <c r="B44" s="11"/>
       <c r="C44" s="12"/>
       <c r="D44" s="13"/>
@@ -6021,7 +6090,7 @@
       <c r="AI44" s="31"/>
     </row>
     <row r="45" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="70"/>
+      <c r="A45" s="42"/>
       <c r="B45" s="11"/>
       <c r="C45" s="12"/>
       <c r="D45" s="13"/>
@@ -6142,7 +6211,7 @@
       </c>
     </row>
     <row r="46" spans="1:35" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="71"/>
+      <c r="A46" s="43"/>
       <c r="B46" s="32"/>
       <c r="C46" s="33"/>
       <c r="D46" s="34"/>
@@ -6263,7 +6332,7 @@
       </c>
     </row>
     <row r="47" spans="1:35" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="46" t="s">
+      <c r="A47" s="51" t="s">
         <v>30</v>
       </c>
       <c r="B47" s="24" t="s">
@@ -6283,39 +6352,39 @@
       <c r="G47" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="H47" s="72" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="I47" s="72" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="J47" s="72" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="K47" s="72" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="L47" s="72" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="M47" s="72" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="N47" s="72" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="O47" s="72" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="P47" s="72" t="str">
+      <c r="H47" s="39" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I47" s="39" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="J47" s="39" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="K47" s="39" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="L47" s="39" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="M47" s="39" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="N47" s="39" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="O47" s="39" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="P47" s="39" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -6397,7 +6466,7 @@
       </c>
     </row>
     <row r="48" spans="1:35" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="47"/>
+      <c r="A48" s="52"/>
       <c r="B48" s="11"/>
       <c r="C48" s="12"/>
       <c r="D48" s="26"/>
@@ -6518,7 +6587,7 @@
       </c>
     </row>
     <row r="49" spans="1:35" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="47"/>
+      <c r="A49" s="52"/>
       <c r="B49" s="11"/>
       <c r="C49" s="12"/>
       <c r="D49" s="26"/>
@@ -6639,7 +6708,7 @@
       </c>
     </row>
     <row r="50" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="47"/>
+      <c r="A50" s="52"/>
       <c r="B50" s="11"/>
       <c r="C50" s="12"/>
       <c r="D50" s="26"/>
@@ -6760,7 +6829,7 @@
       </c>
     </row>
     <row r="51" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="47"/>
+      <c r="A51" s="52"/>
       <c r="B51" s="11"/>
       <c r="C51" s="12"/>
       <c r="D51" s="13"/>
@@ -6881,7 +6950,7 @@
       </c>
     </row>
     <row r="52" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="47"/>
+      <c r="A52" s="52"/>
       <c r="B52" s="11"/>
       <c r="C52" s="12"/>
       <c r="D52" s="13"/>
@@ -6918,7 +6987,7 @@
       <c r="AI52" s="31"/>
     </row>
     <row r="53" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="47"/>
+      <c r="A53" s="52"/>
       <c r="B53" s="11"/>
       <c r="C53" s="12"/>
       <c r="D53" s="13"/>
@@ -7039,7 +7108,7 @@
       </c>
     </row>
     <row r="54" spans="1:35" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="48"/>
+      <c r="A54" s="53"/>
       <c r="B54" s="32"/>
       <c r="C54" s="33"/>
       <c r="D54" s="34"/>
@@ -7212,11 +7281,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="V5:AB5"/>
-    <mergeCell ref="AC5:AI5"/>
-    <mergeCell ref="A39:A46"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="H3:AI3"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="A47:A54"/>
     <mergeCell ref="E1:G1"/>
@@ -7231,35 +7295,45 @@
     <mergeCell ref="F3:F5"/>
     <mergeCell ref="G3:G5"/>
     <mergeCell ref="A7:A14"/>
+    <mergeCell ref="V5:AB5"/>
+    <mergeCell ref="AC5:AI5"/>
+    <mergeCell ref="A39:A46"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="H3:AI3"/>
     <mergeCell ref="O5:U5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H7:AI14">
+  <conditionalFormatting sqref="H7:AI8 H13:AI14 Q9:AI12">
+    <cfRule type="cellIs" dxfId="6" priority="15" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15:AI22">
     <cfRule type="cellIs" dxfId="5" priority="14" operator="equal">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15:AI22">
-    <cfRule type="cellIs" dxfId="4" priority="13" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H23:AI30">
-    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="11" operator="equal">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31:AI38">
-    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:AI46">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47:AI54">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:P12">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>" "</formula>
     </cfRule>
